--- a/recursos/Qualtrics/Updated_Qualtrics_Seguimiento_Tutore_2.xlsx
+++ b/recursos/Qualtrics/Updated_Qualtrics_Seguimiento_Tutore_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C6024-FB25-482D-8C61-5B4DB567A498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014EDB60-453A-46D6-B43A-95666A919FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20385" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>Fecha de inicio</t>
   </si>
@@ -286,19 +286,22 @@
     <t>Gracias</t>
   </si>
   <si>
-    <t>Prueba1@pruebmail.com</t>
-  </si>
-  <si>
-    <t>Prueba2@pruebmail.com</t>
-  </si>
-  <si>
     <t>Prueba3@pruebmail.com</t>
   </si>
   <si>
-    <t>Prueba4@pruebmail.com</t>
-  </si>
-  <si>
-    <t>Prueba5@pruebmail.com</t>
+    <t>quintana.nicolas@javeriana.edi.co</t>
+  </si>
+  <si>
+    <t>jecheverry@javeriana.edu.co</t>
+  </si>
+  <si>
+    <t>valentina.lopez@javeriana.edu.co</t>
+  </si>
+  <si>
+    <t>mateo.fernandez@.hotmail.com</t>
+  </si>
+  <si>
+    <t>camila.rodriguez@javeriana.edu.co</t>
   </si>
 </sst>
 </file>
@@ -677,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +854,7 @@
         <v>70</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W2">
         <v>4</v>
@@ -910,7 +913,7 @@
         <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W3">
         <v>22222</v>
@@ -969,7 +972,7 @@
         <v>72</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W4">
         <v>333333</v>
@@ -1108,6 +1111,65 @@
         <v>5</v>
       </c>
       <c r="AQ6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+      <c r="F7">
+        <v>517</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W7">
+        <v>5555</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP7">
+        <v>5</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1118,6 +1180,7 @@
     <hyperlink ref="L5" r:id="rId3" xr:uid="{796AD476-DE5C-47CF-ADB4-636DFBCC2907}"/>
     <hyperlink ref="L6" r:id="rId4" xr:uid="{4DC79694-8E6D-4577-B6EE-8EE8A97E1CE4}"/>
     <hyperlink ref="L2" r:id="rId5" xr:uid="{80341F2B-66FE-48F5-BDFF-9C9188943D00}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{467DEE6C-1FC9-409B-A54F-79B35954FA36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
